--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10520"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\_School\2022-2023\EED 3009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elifsezinozyigit/Desktop/EED3009/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6BE352-7D9D-4BE3-BA3C-2AE05F1944E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0DD6FA-F3B2-7949-AC95-25E96A13C4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33020" windowHeight="19780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>IR</t>
   </si>
   <si>
-    <t>US</t>
-  </si>
-  <si>
     <t>Range</t>
   </si>
   <si>
@@ -45,56 +42,98 @@
     <t>Resolution</t>
   </si>
   <si>
-    <t>Refresh rate</t>
-  </si>
-  <si>
     <t>Slow</t>
   </si>
   <si>
-    <t>sens. To surface geometry</t>
-  </si>
-  <si>
-    <t>sens. To environmental cond.</t>
-  </si>
-  <si>
     <t>Moderate</t>
   </si>
   <si>
     <t>Higher</t>
   </si>
   <si>
-    <t>Detection angle</t>
-  </si>
-  <si>
-    <t>narrow</t>
-  </si>
-  <si>
-    <t>wide</t>
-  </si>
-  <si>
-    <t>sens. to surface material</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>higher</t>
-  </si>
-  <si>
-    <t>much faster</t>
+    <t>Lower</t>
+  </si>
+  <si>
+    <t>Much faster</t>
+  </si>
+  <si>
+    <t>Wide</t>
+  </si>
+  <si>
+    <t>Narrow</t>
+  </si>
+  <si>
+    <t>Refresh Rate</t>
+  </si>
+  <si>
+    <t>Detection Angle</t>
+  </si>
+  <si>
+    <t>Sensitiviy to Surface Material</t>
+  </si>
+  <si>
+    <t>Sensitiviy to Surface Geometry</t>
+  </si>
+  <si>
+    <t>Sensitiviy to Environmental Conditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source </t>
+  </si>
+  <si>
+    <t>Applicable Surface</t>
+  </si>
+  <si>
+    <t>Suitable to Complex Surfaces</t>
+  </si>
+  <si>
+    <t>Not Suitable to Complex Surfaces</t>
+  </si>
+  <si>
+    <t>Ultrasonic</t>
+  </si>
+  <si>
+    <t>Sensor Type →</t>
+  </si>
+  <si>
+    <t>Reflected Light Waves</t>
+  </si>
+  <si>
+    <t>Reflected Sound Waves</t>
+  </si>
+  <si>
+    <t>Measurement Method</t>
+  </si>
+  <si>
+    <t>Triangulation and ToF</t>
+  </si>
+  <si>
+    <t>ToF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,13 +156,119 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -134,6 +279,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B7371AA3-D887-984C-87A1-74C4CA0A434E}" name="Table1" displayName="Table1" ref="A2:C12" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A2:C12" xr:uid="{B7371AA3-D887-984C-87A1-74C4CA0A434E}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{5159375E-9456-2446-86DE-49E61A12428E}" name="Sensor Type →" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{542F6FA9-6B60-CE42-8B86-185C6DBE85F8}" name="IR" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{13A949B6-EE5A-9C4D-A17F-AB18516C0231}" name="Ultrasonic" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -399,104 +556,197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="F8:H15"/>
+  <dimension ref="A2:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="G8" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H8" t="s">
+      <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F9" t="s">
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G9" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F10" t="s">
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F11" t="s">
+      <c r="B12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="C12" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" t="s">
-        <v>11</v>
-      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>